--- a/issues+history/概率统计模版.xlsx
+++ b/issues+history/概率统计模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="掷两个骰子的统计" sheetId="3" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -273,10 +270,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="9"/>
@@ -624,7 +624,7 @@
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-200</v>
       </c>
       <c r="D5" s="9"/>
@@ -640,7 +640,7 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>-300</v>
       </c>
       <c r="D6" s="9"/>
@@ -656,7 +656,7 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>-400</v>
       </c>
       <c r="D7" s="9"/>
@@ -672,7 +672,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>-500</v>
       </c>
       <c r="D8" s="9"/>
@@ -688,7 +688,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>-600</v>
       </c>
       <c r="D9" s="9"/>
@@ -704,7 +704,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>-700</v>
       </c>
       <c r="D10" s="9"/>
@@ -820,48 +820,48 @@
       <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="18">
-        <f>D14/200</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <f t="shared" ref="E15:N15" si="1">E14/200</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" ref="F15" si="2">F14/200</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <f t="shared" ref="G15" si="3">G14/200</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <f t="shared" ref="H15" si="4">H14/200</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
-        <f t="shared" ref="I15" si="5">I14/200</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
-        <f t="shared" ref="J15" si="6">J14/200</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" ref="K15" si="7">K14/200</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="18">
-        <f t="shared" ref="L15" si="8">L14/200</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" ref="M15" si="9">M14/200</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="18">
-        <f t="shared" ref="N15" si="10">N14/200</f>
+      <c r="D15" s="16">
+        <f>D14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <f>E14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <f>F14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <f>G14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <f>H14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <f>I14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <f>J14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <f>K14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <f>L14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <f>M14/-C13</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <f>N14/-C13</f>
         <v>0</v>
       </c>
     </row>
@@ -877,16 +877,13 @@
   <dimension ref="C3:G9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="4" max="7" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
@@ -907,7 +904,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="9"/>
@@ -916,7 +913,7 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-100</v>
       </c>
       <c r="D5" s="9"/>
@@ -967,20 +964,20 @@
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18">
-        <f>D8/200</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <f t="shared" ref="E9:G9" si="0">E8/200</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <f t="shared" si="0"/>
+      <c r="D9" s="16">
+        <f>D8/-C7</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <f>E8/-C7</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <f>F8/-C7</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <f>G8/-C7</f>
         <v>0</v>
       </c>
     </row>
@@ -995,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J8"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1015,13 +1012,13 @@
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1027,7 @@
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1">
@@ -1040,16 +1037,17 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="10">
-        <v>43</v>
-      </c>
-      <c r="J4" s="17">
-        <f>I4/100</f>
-        <v>0.43</v>
+      <c r="I4" s="17">
+        <f>D4+E5+F6+G7+H8</f>
+        <v>45</v>
+      </c>
+      <c r="J4" s="18">
+        <f>I4/-C8</f>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>-40</v>
       </c>
       <c r="D5" s="6"/>
@@ -1059,11 +1057,11 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>-60</v>
       </c>
       <c r="D6" s="6"/>
@@ -1073,36 +1071,36 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>-80</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>-100</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>9</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/issues+history/概率统计模版.xlsx
+++ b/issues+history/概率统计模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="掷两个骰子的统计" sheetId="3" r:id="rId1"/>
@@ -79,7 +79,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +92,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -247,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -277,6 +298,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -559,13 +584,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="8.08203125" customWidth="1"/>
     <col min="4" max="14" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -772,15 +797,15 @@
         <v>11</v>
       </c>
       <c r="D14" s="9">
-        <f>SUM(D4:D12)</f>
+        <f>SUM(D4:D13)</f>
         <v>0</v>
       </c>
       <c r="E14" s="9">
-        <f t="shared" ref="E14:N14" si="0">SUM(E4:E12)</f>
+        <f>SUM(E4:E13)</f>
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F14:N14" si="0">SUM(F4:F13)</f>
         <v>0</v>
       </c>
       <c r="G14" s="9">
@@ -800,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(K4:K13)</f>
         <v>0</v>
       </c>
       <c r="L14" s="9">
@@ -876,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -907,78 +932,110 @@
       <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="9">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="10">
         <v>-100</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="9">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" s="9">
         <v>-150</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="9">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="9">
         <v>-200</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="9">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="22">
         <f>SUM(D4:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+        <v>42</v>
+      </c>
+      <c r="E8" s="20">
         <f>SUM(E4:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
+        <v>55</v>
+      </c>
+      <c r="F8" s="22">
         <f>SUM(F4:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
+        <v>50</v>
+      </c>
+      <c r="G8" s="20">
         <f>SUM(G4:G7)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="21">
         <f>D8/-C7</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="E9" s="19">
         <f>E8/-C7</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F9" s="21">
         <f>F8/-C7</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="19">
         <f>G8/-C7</f>
-        <v>0</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -992,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/issues+history/概率统计模版.xlsx
+++ b/issues+history/概率统计模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="掷两个骰子的统计" sheetId="3" r:id="rId1"/>
@@ -292,16 +292,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -582,19 +582,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N15"/>
+  <dimension ref="C3:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="8.08203125" customWidth="1"/>
-    <col min="4" max="14" width="3.58203125" customWidth="1"/>
+    <col min="4" max="14" width="4.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
@@ -632,23 +632,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6</v>
+      </c>
+      <c r="G4" s="9">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9">
+        <v>25</v>
+      </c>
+      <c r="J4" s="9">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9">
+        <v>11</v>
+      </c>
+      <c r="L4" s="9">
+        <v>6</v>
+      </c>
+      <c r="M4" s="9">
+        <v>5</v>
+      </c>
+      <c r="N4" s="9">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <f>SUM(D4:N4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" s="10">
         <v>-200</v>
       </c>
@@ -663,8 +689,12 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <f t="shared" ref="O5:O8" si="0">SUM(D5:N5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="10">
         <v>-300</v>
       </c>
@@ -679,8 +709,12 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" s="10">
         <v>-400</v>
       </c>
@@ -695,8 +729,12 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="10">
         <v>-500</v>
       </c>
@@ -711,183 +749,107 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="10">
-        <v>-600</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="10">
-        <v>-700</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C11" s="9">
-        <v>-800</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="9">
-        <v>-900</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="9">
-        <v>-1000</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9">
-        <f>SUM(D4:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <f>SUM(E4:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" ref="F14:N14" si="0">SUM(F4:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="O8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <f>SUM(K4:K13)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9">
+        <f>SUM(D4:D8)</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="9">
+        <f>SUM(E4:E8)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <f>SUM(G4:G8)</f>
+        <v>12</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(H4:H8)</f>
+        <v>19</v>
+      </c>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>25</v>
+      </c>
+      <c r="J9" s="9">
+        <f>SUM(J4:J8)</f>
+        <v>7</v>
+      </c>
+      <c r="K9" s="9">
+        <f>SUM(K4:K8)</f>
+        <v>11</v>
+      </c>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>6</v>
+      </c>
+      <c r="M9" s="9">
+        <f>SUM(M4:M8)</f>
+        <v>5</v>
+      </c>
+      <c r="N9" s="9">
+        <f>SUM(N4:N8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="16">
-        <f>D14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <f>E14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <f>F14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <f>G14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
-        <f>H14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <f>I14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
-        <f>J14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="16">
-        <f>K14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
-        <f>L14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <f>M14/-C13</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="16">
-        <f>N14/-C13</f>
-        <v>0</v>
+      <c r="D10" s="16">
+        <f>D9/-C8</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E10" s="16">
+        <f>E9/-C8</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="16">
+        <f>F9/-C8</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="G10" s="16">
+        <f>G9/-C8</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H10" s="16">
+        <f>H9/-C8</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I10" s="16">
+        <f>I9/-C8</f>
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="16">
+        <f>J9/-C8</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="K10" s="16">
+        <f>K9/-C8</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L10" s="16">
+        <f>L9/-C8</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="M10" s="16">
+        <f>M9/-C8</f>
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="16">
+        <f>N9/-C8</f>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1000,19 +962,19 @@
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <f>SUM(D4:D7)</f>
         <v>42</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <f>SUM(E4:E7)</f>
         <v>55</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <f>SUM(F4:F7)</f>
         <v>50</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <f>SUM(G4:G7)</f>
         <v>53</v>
       </c>
@@ -1021,19 +983,19 @@
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <f>D8/-C7</f>
         <v>0.21</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <f>E8/-C7</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <f>F8/-C7</f>
         <v>0.25</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>G8/-C7</f>
         <v>0.26500000000000001</v>
       </c>
@@ -1069,13 +1031,13 @@
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1094,11 +1056,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="17">
+      <c r="I4" s="21">
         <f>D4+E5+F6+G7+H8</f>
         <v>45</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="22">
         <f>I4/-C8</f>
         <v>0.45</v>
       </c>
@@ -1114,8 +1076,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" s="13">
@@ -1128,8 +1090,8 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="13">
@@ -1142,8 +1104,8 @@
         <v>9</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="14">
@@ -1156,8 +1118,8 @@
       <c r="H8" s="15">
         <v>9</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/issues+history/概率统计模版.xlsx
+++ b/issues+history/概率统计模版.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="掷两个骰子的统计" sheetId="3" r:id="rId1"/>
     <sheet name="扔2个硬币的统计" sheetId="2" r:id="rId2"/>
     <sheet name="扔1个硬币的统计" sheetId="1" r:id="rId3"/>
+    <sheet name="抓2种颜色球的统计" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>实验次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +73,18 @@
   </si>
   <si>
     <t>0-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -678,40 +691,84 @@
       <c r="C5" s="10">
         <v>-200</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>11</v>
+      </c>
+      <c r="G5" s="9">
+        <v>14</v>
+      </c>
+      <c r="H5" s="9">
+        <v>21</v>
+      </c>
+      <c r="I5" s="9">
+        <v>14</v>
+      </c>
+      <c r="J5" s="9">
+        <v>12</v>
+      </c>
+      <c r="K5" s="9">
+        <v>8</v>
+      </c>
+      <c r="L5" s="9">
+        <v>9</v>
+      </c>
+      <c r="M5" s="9">
+        <v>5</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
       <c r="O5">
         <f t="shared" ref="O5:O8" si="0">SUM(D5:N5)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="10">
         <v>-300</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9">
+        <v>9</v>
+      </c>
+      <c r="H6" s="9">
+        <v>7</v>
+      </c>
+      <c r="I6" s="9">
+        <v>26</v>
+      </c>
+      <c r="J6" s="9">
+        <v>13</v>
+      </c>
+      <c r="K6" s="9">
+        <v>14</v>
+      </c>
+      <c r="L6" s="9">
+        <v>7</v>
+      </c>
+      <c r="M6" s="9">
+        <v>7</v>
+      </c>
+      <c r="N6" s="9">
+        <v>3</v>
+      </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
@@ -730,7 +787,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f>SUM(D7:N7)</f>
         <v>0</v>
       </c>
     </row>
@@ -759,48 +816,48 @@
         <v>11</v>
       </c>
       <c r="D9" s="9">
-        <f>SUM(D4:D8)</f>
-        <v>4</v>
+        <f t="shared" ref="D9:N9" si="1">SUM(D4:D8)</f>
+        <v>6</v>
       </c>
       <c r="E9" s="9">
-        <f>SUM(E4:E8)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="F9" s="9">
-        <f>SUM(F4:F8)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="G9" s="9">
-        <f>SUM(G4:G8)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="H9" s="9">
-        <f>SUM(H4:H8)</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="I9" s="9">
         <f>SUM(I4:I8)</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J9" s="9">
-        <f>SUM(J4:J8)</f>
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="1"/>
         <v>7</v>
-      </c>
-      <c r="K9" s="9">
-        <f>SUM(K4:K8)</f>
-        <v>11</v>
-      </c>
-      <c r="L9" s="9">
-        <f>SUM(L4:L8)</f>
-        <v>6</v>
-      </c>
-      <c r="M9" s="9">
-        <f>SUM(M4:M8)</f>
-        <v>5</v>
-      </c>
-      <c r="N9" s="9">
-        <f>SUM(N4:N8)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
@@ -809,47 +866,47 @@
       </c>
       <c r="D10" s="16">
         <f>D9/-C8</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E10" s="16">
         <f>E9/-C8</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F10" s="16">
         <f>F9/-C8</f>
-        <v>1.2E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G10" s="16">
         <f>G9/-C8</f>
-        <v>2.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H10" s="16">
         <f>H9/-C8</f>
-        <v>3.7999999999999999E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I10" s="16">
         <f>I9/-C8</f>
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="J10" s="16">
         <f>J9/-C8</f>
-        <v>1.4E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="K10" s="16">
         <f>K9/-C8</f>
-        <v>2.1999999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="L10" s="16">
         <f>L9/-C8</f>
-        <v>1.2E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="M10" s="16">
         <f>M9/-C8</f>
-        <v>0.01</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="N10" s="16">
         <f>N9/-C8</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
     </row>
   </sheetData>
@@ -863,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1012,7 +1069,7 @@
   <dimension ref="C3:J8"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I4" sqref="I4:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1130,4 +1187,758 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.58203125" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.08203125" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.9140625" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="9">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
+        <v>41</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
+        <v>42</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
+        <v>23</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>43</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>44</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>45</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>46</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>47</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>48</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
+        <v>29</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>49</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>50</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>51</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>52</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>33</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>53</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>34</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
+        <v>54</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
+        <v>35</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <v>55</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>36</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <v>37</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>57</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>38</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <v>58</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <v>59</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>40</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9">
+        <v>60</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="9">
+        <v>81</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>101</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>62</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
+        <v>82</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <v>102</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9">
+        <v>83</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <v>103</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <v>64</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
+        <v>84</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
+        <v>104</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>65</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9">
+        <v>85</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
+        <v>105</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <v>66</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
+        <v>86</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <v>106</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="9">
+        <v>67</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9">
+        <v>87</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9">
+        <v>107</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="9">
+        <v>68</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
+        <v>88</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
+        <v>108</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>69</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
+        <v>89</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9">
+        <v>109</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="9">
+        <v>70</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9">
+        <v>90</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
+        <v>110</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>71</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9">
+        <v>91</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9">
+        <v>111</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>72</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
+        <v>92</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9">
+        <v>112</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="9">
+        <v>73</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9">
+        <v>93</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9">
+        <v>113</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="9">
+        <v>74</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9">
+        <v>94</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9">
+        <v>114</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="9">
+        <v>75</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9">
+        <v>95</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9">
+        <v>115</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="9">
+        <v>76</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9">
+        <v>96</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9">
+        <v>116</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="9">
+        <v>77</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9">
+        <v>97</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9">
+        <v>117</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="9">
+        <v>78</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9">
+        <v>98</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9">
+        <v>118</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="9">
+        <v>79</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9">
+        <v>99</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9">
+        <v>119</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="9">
+        <v>80</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9">
+        <v>100</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9">
+        <v>120</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/issues+history/概率统计模版.xlsx
+++ b/issues+history/概率统计模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="掷两个骰子的统计" sheetId="3" r:id="rId1"/>
@@ -304,7 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -315,6 +314,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -330,6 +330,1190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>掷两个骰子的统计!$D$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF33-4405-B7B8-692A1A078894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>掷两个骰子的统计!$D$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF33-4405-B7B8-692A1A078894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>掷两个骰子的统计!$D$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF33-4405-B7B8-692A1A078894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2034472079"/>
+        <c:axId val="2034475823"/>
+      </c:areaChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>掷两个骰子的统计!$D$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CF33-4405-B7B8-692A1A078894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>掷两个骰子的统计!$D$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CF33-4405-B7B8-692A1A078894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>掷两个骰子的统计!$D$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CF33-4405-B7B8-692A1A078894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2034472079"/>
+        <c:axId val="2034475823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2034472079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2034475823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2034475823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2034472079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>637615</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>17958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>513957</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104184</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,14 +1781,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="8.08203125" customWidth="1"/>
-    <col min="4" max="14" width="4.08203125" customWidth="1"/>
+    <col min="4" max="14" width="5.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
@@ -775,40 +1959,84 @@
       <c r="C7" s="10">
         <v>-400</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9">
+        <v>12</v>
+      </c>
+      <c r="H7" s="9">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9">
+        <v>11</v>
+      </c>
+      <c r="L7" s="9">
+        <v>10</v>
+      </c>
+      <c r="M7" s="9">
+        <v>5</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
       <c r="O7">
         <f>SUM(D7:N7)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="10">
         <v>-500</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9">
+        <v>12</v>
+      </c>
+      <c r="J8" s="9">
+        <v>13</v>
+      </c>
+      <c r="K8" s="9">
+        <v>14</v>
+      </c>
+      <c r="L8" s="9">
+        <v>11</v>
+      </c>
+      <c r="M8" s="9">
+        <v>5</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
@@ -817,102 +2045,103 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ref="D9:N9" si="1">SUM(D4:D8)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I9" s="9">
         <f>SUM(I4:I8)</f>
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="22">
         <f>D9/-C8</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="E10" s="16">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E10" s="22">
         <f>E9/-C8</f>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F10" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="22">
         <f>F9/-C8</f>
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="16">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G10" s="22">
         <f>G9/-C8</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H10" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="H10" s="22">
         <f>H9/-C8</f>
-        <v>9.4E-2</v>
-      </c>
-      <c r="I10" s="16">
+        <v>0.158</v>
+      </c>
+      <c r="I10" s="22">
         <f>I9/-C8</f>
-        <v>0.13</v>
-      </c>
-      <c r="J10" s="16">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="J10" s="22">
         <f>J9/-C8</f>
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="K10" s="16">
+        <v>0.124</v>
+      </c>
+      <c r="K10" s="22">
         <f>K9/-C8</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="L10" s="16">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L10" s="22">
         <f>L9/-C8</f>
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="M10" s="16">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M10" s="22">
         <f>M9/-C8</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="N10" s="16">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N10" s="22">
         <f>N9/-C8</f>
-        <v>1.4E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1019,19 +2248,19 @@
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f>SUM(D4:D7)</f>
         <v>42</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f>SUM(E4:E7)</f>
         <v>55</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f>SUM(F4:F7)</f>
         <v>50</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f>SUM(G4:G7)</f>
         <v>53</v>
       </c>
@@ -1040,19 +2269,19 @@
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f>D8/-C7</f>
         <v>0.21</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <f>E8/-C7</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f>F8/-C7</f>
         <v>0.25</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f>G8/-C7</f>
         <v>0.26500000000000001</v>
       </c>
@@ -1088,13 +2317,13 @@
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1113,11 +2342,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <f>D4+E5+F6+G7+H8</f>
         <v>45</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <f>I4/-C8</f>
         <v>0.45</v>
       </c>
@@ -1133,8 +2362,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" s="13">
@@ -1147,8 +2376,8 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="13">
@@ -1161,8 +2390,8 @@
         <v>9</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="14">
@@ -1175,8 +2404,8 @@
       <c r="H8" s="15">
         <v>9</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1193,7 +2422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -1239,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="9">
         <v>21</v>
       </c>
@@ -1602,7 +2831,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="9">
         <v>81</v>
       </c>

--- a/issues+history/概率统计模版.xlsx
+++ b/issues+history/概率统计模版.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="掷两个骰子的统计" sheetId="3" r:id="rId1"/>
-    <sheet name="扔2个硬币的统计" sheetId="2" r:id="rId2"/>
-    <sheet name="扔1个硬币的统计" sheetId="1" r:id="rId3"/>
-    <sheet name="抓2种颜色球的统计" sheetId="4" r:id="rId4"/>
+    <sheet name="抓2种颜色球的统计" sheetId="4" r:id="rId1"/>
+    <sheet name="掷两个骰子的统计" sheetId="3" r:id="rId2"/>
+    <sheet name="扔2个硬币的统计" sheetId="2" r:id="rId3"/>
+    <sheet name="扔1个硬币的统计" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>实验次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,15 +76,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>颜色1</t>
+    <t>红色珠子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>颜色2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色1</t>
+    <t>蓝色珠子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,13 +304,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1779,9 +1775,890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" customWidth="1"/>
+    <col min="4" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="7" width="2" customWidth="1"/>
+    <col min="8" max="9" width="7.9140625" customWidth="1"/>
+    <col min="10" max="10" width="2.25" customWidth="1"/>
+    <col min="11" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.75" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>2</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
+        <v>2</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <v>2</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
+        <v>2</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
+        <v>2</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9">
+        <v>2</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9">
+        <v>2</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
+        <v>2</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
+        <v>2</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9">
+        <v>2</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>2</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9">
+        <v>2</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
+        <v>2</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9">
+        <v>2</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
+        <v>2</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9">
+        <v>2</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>2</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9">
+        <v>2</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9">
+        <v>2</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
+        <v>2</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9">
+        <v>2</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9">
+        <v>1</v>
+      </c>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>2</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9">
+        <v>2</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>2</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9">
+        <v>2</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9">
+        <v>1</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>2</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9">
+        <v>2</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>2</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9">
+        <v>2</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9">
+        <v>1</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9">
+        <v>2</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9">
+        <v>2</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9">
+        <v>2</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -2092,47 +2969,47 @@
       <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <f>D9/-C8</f>
         <v>2.4E-2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <f>E9/-C8</f>
         <v>0.05</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <f>F9/-C8</f>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <f>G9/-C8</f>
         <v>0.11</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="20">
         <f>H9/-C8</f>
         <v>0.158</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="20">
         <f>I9/-C8</f>
         <v>0.17799999999999999</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="20">
         <f>J9/-C8</f>
         <v>0.124</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <f>K9/-C8</f>
         <v>0.11600000000000001</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="20">
         <f>L9/-C8</f>
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="20">
         <f>M9/-C8</f>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <f>N9/-C8</f>
         <v>1.6E-2</v>
       </c>
@@ -2145,11 +3022,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -2293,7 +3170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J8"/>
   <sheetViews>
@@ -2317,13 +3194,13 @@
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="D3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2342,11 +3219,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="20">
+      <c r="I4" s="21">
         <f>D4+E5+F6+G7+H8</f>
         <v>45</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="22">
         <f>I4/-C8</f>
         <v>0.45</v>
       </c>
@@ -2362,8 +3239,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" s="13">
@@ -2376,8 +3253,8 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="13">
@@ -2390,8 +3267,8 @@
         <v>9</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="14">
@@ -2404,8 +3281,8 @@
       <c r="H8" s="15">
         <v>9</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2416,758 +3293,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J44"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="5.58203125" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.08203125" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" customWidth="1"/>
-    <col min="9" max="9" width="5.9140625" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="9">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
-        <v>41</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9">
-        <v>42</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>23</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9">
-        <v>43</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9">
-        <v>44</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9">
-        <v>45</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <v>46</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <v>27</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <v>47</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <v>48</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
-        <v>29</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <v>49</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>30</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <v>50</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
-        <v>31</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
-        <v>51</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <v>52</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
-        <v>33</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9">
-        <v>53</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>34</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9">
-        <v>54</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
-        <v>35</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <v>55</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
-        <v>16</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>36</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9">
-        <v>56</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>37</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9">
-        <v>57</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>38</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9">
-        <v>58</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="9">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>39</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9">
-        <v>59</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="9">
-        <v>20</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>40</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9">
-        <v>60</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="9">
-        <v>61</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="9">
-        <v>81</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9">
-        <v>101</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="9">
-        <v>62</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
-        <v>82</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
-        <v>102</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="9">
-        <v>63</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
-        <v>83</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9">
-        <v>103</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="9">
-        <v>64</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
-        <v>84</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
-        <v>104</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="9">
-        <v>65</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>85</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9">
-        <v>105</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="9">
-        <v>66</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9">
-        <v>86</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9">
-        <v>106</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="9">
-        <v>67</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <v>87</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9">
-        <v>107</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="9">
-        <v>68</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9">
-        <v>88</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9">
-        <v>108</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="9">
-        <v>69</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9">
-        <v>89</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9">
-        <v>109</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="9">
-        <v>70</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
-        <v>90</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9">
-        <v>110</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="9">
-        <v>71</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>91</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9">
-        <v>111</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="9">
-        <v>72</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9">
-        <v>92</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9">
-        <v>112</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="9">
-        <v>73</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9">
-        <v>93</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9">
-        <v>113</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="9">
-        <v>74</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9">
-        <v>94</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9">
-        <v>114</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="9">
-        <v>75</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>95</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9">
-        <v>115</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="9">
-        <v>76</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9">
-        <v>96</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9">
-        <v>116</v>
-      </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="9">
-        <v>77</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>97</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9">
-        <v>117</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="9">
-        <v>78</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9">
-        <v>98</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9">
-        <v>118</v>
-      </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="9">
-        <v>79</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9">
-        <v>99</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9">
-        <v>119</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="9">
-        <v>80</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9">
-        <v>100</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9">
-        <v>120</v>
-      </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/issues+history/概率统计模版.xlsx
+++ b/issues+history/概率统计模版.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E64737-3F5F-244D-91AA-C2160975B957}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="抓2种颜色球的统计" sheetId="4" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="扔2个硬币的统计" sheetId="2" r:id="rId3"/>
     <sheet name="扔1个硬币的统计" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,11 +88,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,7 +855,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1494,7 +1494,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1774,29 +1780,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="2.33203125" customWidth="1"/>
     <col min="3" max="3" width="2.1640625" customWidth="1"/>
-    <col min="4" max="5" width="8.25" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" customWidth="1"/>
     <col min="6" max="7" width="2" customWidth="1"/>
-    <col min="8" max="9" width="7.9140625" customWidth="1"/>
-    <col min="10" max="10" width="2.25" customWidth="1"/>
+    <col min="8" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.75" customWidth="1"/>
+    <col min="12" max="13" width="7.6640625" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
@@ -1822,7 +1827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -1842,7 +1847,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" s="9"/>
       <c r="C4" s="9">
         <v>2</v>
@@ -1862,7 +1867,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" s="9">
         <v>1</v>
       </c>
@@ -1882,7 +1887,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="9"/>
       <c r="C6" s="9">
         <v>2</v>
@@ -1902,7 +1907,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="9">
         <v>1</v>
       </c>
@@ -1922,7 +1927,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="9"/>
       <c r="C8" s="9">
         <v>2</v>
@@ -1942,7 +1947,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="9">
         <v>1</v>
       </c>
@@ -1962,7 +1967,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" s="9"/>
       <c r="C10" s="9">
         <v>2</v>
@@ -1982,7 +1987,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="9">
         <v>1</v>
       </c>
@@ -2002,7 +2007,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13">
       <c r="B12" s="9"/>
       <c r="C12" s="9">
         <v>2</v>
@@ -2022,7 +2027,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="9">
         <v>1</v>
       </c>
@@ -2042,7 +2047,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="9"/>
       <c r="C14" s="9">
         <v>2</v>
@@ -2062,7 +2067,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" s="9">
         <v>1</v>
       </c>
@@ -2082,7 +2087,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="B16" s="9"/>
       <c r="C16" s="9">
         <v>2</v>
@@ -2102,7 +2107,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13">
       <c r="B17" s="9">
         <v>1</v>
       </c>
@@ -2122,7 +2127,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13">
       <c r="B18" s="9"/>
       <c r="C18" s="9">
         <v>2</v>
@@ -2142,7 +2147,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13">
       <c r="B19" s="9">
         <v>1</v>
       </c>
@@ -2162,7 +2167,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13">
       <c r="B20" s="9"/>
       <c r="C20" s="9">
         <v>2</v>
@@ -2182,7 +2187,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13">
       <c r="B21" s="9">
         <v>1</v>
       </c>
@@ -2202,7 +2207,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="B22" s="9"/>
       <c r="C22" s="9">
         <v>2</v>
@@ -2222,7 +2227,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
@@ -2248,7 +2253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13">
       <c r="B25" s="9">
         <v>1</v>
       </c>
@@ -2268,7 +2273,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13">
       <c r="B26" s="9"/>
       <c r="C26" s="9">
         <v>2</v>
@@ -2288,7 +2293,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13">
       <c r="B27" s="9">
         <v>1</v>
       </c>
@@ -2308,7 +2313,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13">
       <c r="B28" s="9"/>
       <c r="C28" s="9">
         <v>2</v>
@@ -2328,7 +2333,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13">
       <c r="B29" s="9">
         <v>1</v>
       </c>
@@ -2348,7 +2353,7 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13">
       <c r="B30" s="9"/>
       <c r="C30" s="9">
         <v>2</v>
@@ -2368,7 +2373,7 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13">
       <c r="B31" s="9">
         <v>1</v>
       </c>
@@ -2388,7 +2393,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13">
       <c r="B32" s="9"/>
       <c r="C32" s="9">
         <v>2</v>
@@ -2408,7 +2413,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13">
       <c r="B33" s="9">
         <v>1</v>
       </c>
@@ -2428,7 +2433,7 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13">
       <c r="B34" s="9"/>
       <c r="C34" s="9">
         <v>2</v>
@@ -2448,7 +2453,7 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13">
       <c r="B35" s="9">
         <v>1</v>
       </c>
@@ -2468,7 +2473,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13">
       <c r="B36" s="9"/>
       <c r="C36" s="9">
         <v>2</v>
@@ -2488,7 +2493,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13">
       <c r="B37" s="9">
         <v>1</v>
       </c>
@@ -2508,7 +2513,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13">
       <c r="B38" s="9"/>
       <c r="C38" s="9">
         <v>2</v>
@@ -2528,7 +2533,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13">
       <c r="B39" s="9">
         <v>1</v>
       </c>
@@ -2548,7 +2553,7 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13">
       <c r="B40" s="9"/>
       <c r="C40" s="9">
         <v>2</v>
@@ -2568,7 +2573,7 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13">
       <c r="B41" s="9">
         <v>1</v>
       </c>
@@ -2588,7 +2593,7 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13">
       <c r="B42" s="9"/>
       <c r="C42" s="9">
         <v>2</v>
@@ -2608,7 +2613,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13">
       <c r="B43" s="9">
         <v>1</v>
       </c>
@@ -2628,7 +2633,7 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13">
       <c r="B44" s="9"/>
       <c r="C44" s="9">
         <v>2</v>
@@ -2655,20 +2660,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.08203125" customWidth="1"/>
-    <col min="4" max="14" width="5.08203125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="14" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15">
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15">
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
@@ -2748,7 +2753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15">
       <c r="C5" s="10">
         <v>-200</v>
       </c>
@@ -2790,7 +2795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15">
       <c r="C6" s="10">
         <v>-300</v>
       </c>
@@ -2832,7 +2837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:15">
       <c r="C7" s="10">
         <v>-400</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15">
       <c r="C8" s="10">
         <v>-500</v>
       </c>
@@ -2912,11 +2917,11 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f>SUM(D8:N8)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:15">
       <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
@@ -2965,9 +2970,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:15">
       <c r="C10" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" s="20">
         <f>D9/-C8</f>
@@ -3023,20 +3028,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="7" width="5.58203125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="7" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7">
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7">
       <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7">
       <c r="C5" s="10">
         <v>-100</v>
       </c>
@@ -3087,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7">
       <c r="C6" s="9">
         <v>-150</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7">
       <c r="C7" s="9">
         <v>-200</v>
       </c>
@@ -3121,7 +3126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -3142,7 +3147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7">
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
@@ -3171,26 +3176,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:J8"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="3.58203125" customWidth="1"/>
-    <col min="7" max="7" width="2.75" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
     <col min="9" max="9" width="4.33203125" customWidth="1"/>
     <col min="10" max="10" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10">
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10">
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +3233,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10">
       <c r="C5" s="12">
         <v>-40</v>
       </c>
@@ -3242,7 +3247,7 @@
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10">
       <c r="C6" s="13">
         <v>-60</v>
       </c>
@@ -3256,7 +3261,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10">
       <c r="C7" s="13">
         <v>-80</v>
       </c>
@@ -3270,7 +3275,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10">
       <c r="C8" s="14">
         <v>-100</v>
       </c>
